--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsffgdf23@gamil.com</t>
+    <t>jsffdfdfsdafgdf23@gamil.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsffdfdfsdafgdf23@gamil.com</t>
+    <t>jsfgdf2cghdfg3@gamil.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfgdf2cghdfg3@gamil.com</t>
+    <t>jsfgdf22222dfg3@gamil.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfgdf22222dfg3@gamil.com</t>
+    <t>jsfg222dfg3@gamil.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfg222dfg3@gamil.com</t>
+    <t>jsfg22mghfn2dfg3@gamil.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfg22mghfn2dfg3@gamil.com</t>
+    <t>jsfg22mghy5dfn2dfg3@gamil.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/target/test-classes/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfg22mghy5dfn2dfg3@gamil.com</t>
+    <t>jsfgn2dfg3@gamil.com</t>
   </si>
 </sst>
 </file>
